--- a/data/trans_dic/P37_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad</t>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,03%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>54,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>48,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>56,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,57%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>42,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>38,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40,05%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43,57%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48,59%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,36; 44,62</t>
+          <t>14,91; 52,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,07; 60,13</t>
+          <t>35,91; 77,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,92; 61,01</t>
+          <t>26,08; 75,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,2; 52,68</t>
+          <t>31,5; 83,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,91; 42,26</t>
+          <t>26,97; 56,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,46; 43,32</t>
+          <t>14,21; 39,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,57; 45,32</t>
+          <t>24,21; 53,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,28; 49,09</t>
+          <t>26,53; 62,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,47; 46,15</t>
+          <t>25,45; 48,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28,94; 58,24</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30,2; 63,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33,64; 68,71</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>42,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>39,16%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44,73%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,75; 44,72</t>
+          <t>32,5; 52,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,97; 45,95</t>
+          <t>32,51; 50,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,16; 43,11</t>
+          <t>31,4; 48,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,62; 41,71</t>
+          <t>35,83; 55,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,92; 44,31</t>
+          <t>30,53; 45,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,02; 46,39</t>
+          <t>35,87; 50,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,21; 41,52</t>
+          <t>35,82; 50,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,31; 43,24</t>
+          <t>37,96; 52,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,57; 42,58</t>
+          <t>33,54; 45,46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36,06; 48,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35,51; 47,12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39,13; 51,99</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>40,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34,42%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34,02%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38,93%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,9; 37,91</t>
+          <t>22,43; 40,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,26; 38,29</t>
+          <t>24,18; 40,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,0; 38,94</t>
+          <t>25,1; 42,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,43; 38,09</t>
+          <t>27,94; 46,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,93; 46,46</t>
+          <t>22,2; 35,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,92; 46,23</t>
+          <t>29,28; 44,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,02; 35,91</t>
+          <t>27,59; 42,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,47; 41,06</t>
+          <t>32,5; 48,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,4; 40,71</t>
+          <t>24,15; 35,52</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28,87; 39,9</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28,43; 39,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32,88; 45,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 39,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,55; 42,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,59; 40,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,31; 39,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,49; 42,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,22; 42,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,24; 38,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,97; 40,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,06; 40,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39,71%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38,98%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43,91%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34,22%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>37,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>38,94%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30,31; 43,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33,37; 46,52</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32,86; 48,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37,01; 53,88</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29,63; 39,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33,22; 42,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33,88; 43,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37,61; 49,44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31,31; 39,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34,78; 43,2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>35,11; 44,08</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>38,9; 48,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,03%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44850</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>57644</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55902</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>99940</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>56185</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27185</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45305</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>90328</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101034</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>84829</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>101207</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>190268</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19215; 67629</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37871; 82014</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29764; 86246</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>55952; 147507</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36731; 76403</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15104; 41804</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28605; 63590</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56760; 133683</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>67448; 128378</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>61288; 123346</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70159; 148569</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>131733; 269075</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>167103</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>152410</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>154210</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>228459</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>168475</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>158032</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>155995</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>221921</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>335578</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>310442</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>310205</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>450381</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>132959; 215767</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>120063; 187431</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>120924; 188398</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>185137; 288788</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>136720; 204505</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>132111; 187641</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>130061; 184213</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>186057; 259635</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>287413; 389561</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>265961; 356984</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>265706; 352595</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>394017; 523529</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>103061</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>89854</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>91827</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>131671</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>120727</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>124252</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>112296</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>158427</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>223788</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>214105</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>204123</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>290097</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74653; 134467</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67813; 114604</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>69132; 115769</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>98704; 163155</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>94400; 152785</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>100019; 150840</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>89589; 136699</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>127367; 191931</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>183080; 269309</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>179565; 248146</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>170614; 236759</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>244975; 336811</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>315014</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>299907</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>301940</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>460070</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>345387</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>309468</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>313595</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>470676</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>660400</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>609376</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>615535</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>930746</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>263933; 380834</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>251987; 351352</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>254575; 371993</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>387752; 564498</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>299028; 398054</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>271164; 349463</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>273061; 352816</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>412196; 541900</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>588654; 739276</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>546487; 678786</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>554983; 696793</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>833815; 1047022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
